--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>197.0309953713747</v>
+        <v>1084.267031282476</v>
       </c>
       <c r="R2">
-        <v>1773.278958342372</v>
+        <v>9758.403281542285</v>
       </c>
       <c r="S2">
-        <v>0.002393501493179765</v>
+        <v>0.01038465807556459</v>
       </c>
       <c r="T2">
-        <v>0.002393501493179765</v>
+        <v>0.01038465807556459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>324.5916546478508</v>
+        <v>1051.350120516026</v>
       </c>
       <c r="R3">
-        <v>2921.324891830657</v>
+        <v>9462.151084644236</v>
       </c>
       <c r="S3">
-        <v>0.003943088287246169</v>
+        <v>0.01006939361270516</v>
       </c>
       <c r="T3">
-        <v>0.003943088287246169</v>
+        <v>0.01006939361270516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>287.2880635466544</v>
+        <v>1070.61743409162</v>
       </c>
       <c r="R4">
-        <v>2585.59257191989</v>
+        <v>9635.556906824582</v>
       </c>
       <c r="S4">
-        <v>0.00348993013904015</v>
+        <v>0.01025392791813412</v>
       </c>
       <c r="T4">
-        <v>0.00348993013904015</v>
+        <v>0.01025392791813412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>130.2221990689245</v>
+        <v>427.1461446733541</v>
       </c>
       <c r="R5">
-        <v>1171.99979162032</v>
+        <v>3844.315302060187</v>
       </c>
       <c r="S5">
-        <v>0.001581918760188664</v>
+        <v>0.0040910278858906</v>
       </c>
       <c r="T5">
-        <v>0.001581918760188664</v>
+        <v>0.0040910278858906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>12173.19114149669</v>
+        <v>20682.17095184144</v>
       </c>
       <c r="R6">
-        <v>109558.7202734702</v>
+        <v>186139.5385665729</v>
       </c>
       <c r="S6">
-        <v>0.1478780083256286</v>
+        <v>0.1980852201520947</v>
       </c>
       <c r="T6">
-        <v>0.1478780083256286</v>
+        <v>0.1980852201520947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>20054.28763893375</v>
+        <v>20054.28763893374</v>
       </c>
       <c r="R7">
         <v>180488.5887504037</v>
       </c>
       <c r="S7">
-        <v>0.2436163270554031</v>
+        <v>0.1920716152671552</v>
       </c>
       <c r="T7">
-        <v>0.2436163270554032</v>
+        <v>0.1920716152671553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>17749.55510746996</v>
+        <v>20421.80768856749</v>
       </c>
       <c r="R8">
-        <v>159745.9959672296</v>
+        <v>183796.2691971074</v>
       </c>
       <c r="S8">
-        <v>0.2156187993311941</v>
+        <v>0.1955915692464317</v>
       </c>
       <c r="T8">
-        <v>0.2156187993311942</v>
+        <v>0.1955915692464317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>8045.534750226189</v>
+        <v>8147.724989023267</v>
       </c>
       <c r="R9">
-        <v>72409.81275203569</v>
+        <v>73329.5249012094</v>
       </c>
       <c r="S9">
-        <v>0.0977358887204495</v>
+        <v>0.07803551677178744</v>
       </c>
       <c r="T9">
-        <v>0.09773588872044951</v>
+        <v>0.07803551677178745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>4896.712483386777</v>
+        <v>9378.912213356627</v>
       </c>
       <c r="R10">
-        <v>44070.41235048098</v>
+        <v>84410.20992020964</v>
       </c>
       <c r="S10">
-        <v>0.05948449186163431</v>
+        <v>0.08982731527052319</v>
       </c>
       <c r="T10">
-        <v>0.05948449186163432</v>
+        <v>0.08982731527052321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>8066.913555004139</v>
+        <v>9094.180862585714</v>
       </c>
       <c r="R11">
-        <v>72602.22199503725</v>
+        <v>81847.62776327142</v>
       </c>
       <c r="S11">
-        <v>0.09799559507305647</v>
+        <v>0.08710027697106276</v>
       </c>
       <c r="T11">
-        <v>0.09799559507305648</v>
+        <v>0.08710027697106276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>7139.826119465954</v>
+        <v>9260.843167533758</v>
       </c>
       <c r="R12">
-        <v>64258.43507519359</v>
+        <v>83347.58850780381</v>
       </c>
       <c r="S12">
-        <v>0.08673348295162915</v>
+        <v>0.088696499120254</v>
       </c>
       <c r="T12">
-        <v>0.08673348295162918</v>
+        <v>0.088696499120254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H13">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>3236.346984863894</v>
+        <v>3694.815094051698</v>
       </c>
       <c r="R13">
-        <v>29127.12286377505</v>
+        <v>33253.33584646528</v>
       </c>
       <c r="S13">
-        <v>0.03931463334547492</v>
+        <v>0.03538740024104431</v>
       </c>
       <c r="T13">
-        <v>0.03931463334547493</v>
+        <v>0.03538740024104431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H14">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I14">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J14">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>3.701695891564</v>
+        <v>12.63703986708311</v>
       </c>
       <c r="R14">
-        <v>33.315263024076</v>
+        <v>113.733358803748</v>
       </c>
       <c r="S14">
-        <v>4.496761855694838E-05</v>
+        <v>0.000121032305069458</v>
       </c>
       <c r="T14">
-        <v>4.496761855694838E-05</v>
+        <v>0.000121032305069458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H15">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I15">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J15">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>6.098226282525666</v>
+        <v>12.25339607671089</v>
       </c>
       <c r="R15">
-        <v>54.884036542731</v>
+        <v>110.280564690398</v>
       </c>
       <c r="S15">
-        <v>7.40802922172815E-05</v>
+        <v>0.0001173579246162252</v>
       </c>
       <c r="T15">
-        <v>7.408029221728151E-05</v>
+        <v>0.0001173579246162252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H16">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I16">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J16">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>5.397389596096667</v>
+        <v>12.47795497480666</v>
       </c>
       <c r="R16">
-        <v>48.57650636487</v>
+        <v>112.30159477326</v>
       </c>
       <c r="S16">
-        <v>6.556663855440873E-05</v>
+        <v>0.0001195086562231726</v>
       </c>
       <c r="T16">
-        <v>6.556663855440875E-05</v>
+        <v>0.0001195086562231726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H17">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I17">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J17">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>2.446533746506667</v>
+        <v>4.978351922149111</v>
       </c>
       <c r="R17">
-        <v>22.01880371856</v>
+        <v>44.805167299342</v>
       </c>
       <c r="S17">
-        <v>2.972010654638931E-05</v>
+        <v>4.768058144329911E-05</v>
       </c>
       <c r="T17">
-        <v>2.972010654638931E-05</v>
+        <v>4.768058144329912E-05</v>
       </c>
     </row>
   </sheetData>
